--- a/Results/experiment_v1.xlsx
+++ b/Results/experiment_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87315D-23FE-D849-B473-5F19CE1ADA29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5427BF3-1125-5C44-BC35-CD9FB37CC858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="460" windowWidth="25040" windowHeight="13900" xr2:uid="{5ACFA922-382B-694F-8927-B6D4686CA790}"/>
+    <workbookView xWindow="5720" yWindow="460" windowWidth="25040" windowHeight="13900" xr2:uid="{5ACFA922-382B-694F-8927-B6D4686CA790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A11F1-084B-8147-AFB0-FF144BACE468}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,467 +739,507 @@
         <v>0.20180000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C8" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8">
+        <v>58.8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F8" s="8">
+        <v>85.4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>86.8</v>
+      </c>
+      <c r="H8" s="8">
+        <v>86.8</v>
+      </c>
+      <c r="I8" s="8">
+        <v>86.8</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8">
+        <v>71.8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>80.2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>83</v>
+      </c>
+      <c r="H9" s="8">
+        <v>83.4</v>
+      </c>
+      <c r="I9" s="8">
+        <v>83.4</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>15</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>25</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>30</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>35</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>40</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>24.6</v>
-      </c>
-      <c r="E12" s="3">
-        <v>48.4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>65.8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>78.8</v>
-      </c>
-      <c r="H12" s="3">
-        <v>85.4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>88.2</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>85.4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>3.8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>38.200000000000003</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>65.400000000000006</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>82</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>88.6</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <v>94.4</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="7">
         <v>92.4</v>
       </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5">
         <v>14.4</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>54</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>83.6</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>94.6</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="5">
         <v>98.6</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <v>99</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <v>99.2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="5">
         <v>99.2</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="8">
+        <v>91.4</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="8">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C21" s="3">
         <v>0.4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D21" s="3">
         <v>1.6</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I21" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J21" s="3">
         <v>0.14979999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C22" s="3">
         <v>0.6</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D22" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E22" s="3">
         <v>6.2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F22" s="3">
         <v>7.4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G22" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H22" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I22" s="3">
         <v>9.6</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J22" s="3">
         <v>0.42620000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C23" s="5">
         <v>3.4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D23" s="5">
         <v>8.4</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E23" s="5">
         <v>15.4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F23" s="5">
         <v>18</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G23" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H23" s="5">
         <v>20</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I23" s="5">
         <v>20</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J23" s="6">
         <v>0.33079999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B24" s="8">
         <v>3.8</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C24" s="8">
         <v>9.4</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D24" s="8">
         <v>17</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E24" s="8">
         <v>22.8</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F24" s="8">
         <v>24.6</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G24" s="8">
         <v>27.6</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H24" s="8">
         <v>31.6</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I24" s="8">
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D30" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>17</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F30" s="3">
         <v>19</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G30" s="3">
         <v>20.2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H30" s="3">
         <v>20.8</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I30" s="3">
         <v>20.8</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J30" s="3">
         <v>0.314</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>11.2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>19.2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>23.6</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <v>25.8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G31" s="3">
         <v>27.8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H31" s="3">
         <v>30</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I31" s="3">
         <v>30</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -1214,24 +1254,48 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/experiment_v1.xlsx
+++ b/Results/experiment_v1.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5427BF3-1125-5C44-BC35-CD9FB37CC858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563B33B6-6474-5A4A-AEC1-D813011F7C63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="460" windowWidth="25040" windowHeight="13900" xr2:uid="{5ACFA922-382B-694F-8927-B6D4686CA790}"/>
+    <workbookView xWindow="6500" yWindow="460" windowWidth="22880" windowHeight="13900" xr2:uid="{5ACFA922-382B-694F-8927-B6D4686CA790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$15:$I$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$16:$I$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$17:$I$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$18:$I$18</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t xml:space="preserve">London Center </t>
   </si>
@@ -91,6 +101,24 @@
   </si>
   <si>
     <t>500 test routes, CNN = 75%, thresh = 60, total =  4668 nodes, Hamming distance, consistency metric</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>5m , new, delete out of range points</t>
+  </si>
+  <si>
+    <t>1m, new, delete out of range points</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>2052 diff</t>
   </si>
 </sst>
 </file>
@@ -522,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A11F1-084B-8147-AFB0-FF144BACE468}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +561,7 @@
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +577,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -579,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -611,7 +639,7 @@
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -643,7 +671,7 @@
         <v>0.35859999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -675,7 +703,7 @@
         <v>0.2137</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -707,7 +735,7 @@
         <v>0.50580000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -739,7 +767,7 @@
         <v>0.20180000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -764,9 +792,11 @@
       <c r="I8" s="8">
         <v>86.8</v>
       </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>0</v>
       </c>
@@ -791,511 +821,635 @@
       <c r="I9" s="8">
         <v>83.4</v>
       </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D10" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F10" s="8">
+        <v>85</v>
+      </c>
+      <c r="G10" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>54.8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F11" s="8">
+        <v>84.8</v>
+      </c>
+      <c r="G11" s="8">
+        <v>85.4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>85.8</v>
+      </c>
+      <c r="I11" s="8">
+        <v>85.8</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>52.6</v>
+      </c>
+      <c r="E12" s="8">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G12" s="8">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H12" s="8">
+        <v>81.8</v>
+      </c>
+      <c r="I12" s="8">
+        <v>81.8</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F15" s="1">
         <v>25</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G15" s="1">
         <v>30</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H15" s="1">
         <v>35</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I15" s="1">
         <v>40</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B16" s="3">
         <v>0.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C16" s="3">
         <v>6.2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D16" s="3">
         <v>24.6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E16" s="3">
         <v>48.4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F16" s="3">
         <v>65.8</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G16" s="3">
         <v>78.8</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H16" s="3">
         <v>85.4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I16" s="3">
         <v>88.2</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B17" s="7">
         <v>3.8</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C17" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D17" s="7">
         <v>38.200000000000003</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E17" s="7">
         <v>65.400000000000006</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F17" s="7">
         <v>82</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G17" s="7">
         <v>88.6</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H17" s="7">
         <v>94.4</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I17" s="7">
         <v>92.4</v>
       </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B18" s="5">
         <v>14.4</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C18" s="5">
         <v>54</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D18" s="5">
         <v>83.6</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E18" s="5">
         <v>94.6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F18" s="5">
         <v>98.6</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G18" s="5">
         <v>99</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H18" s="5">
         <v>99.2</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I18" s="5">
         <v>99.2</v>
       </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="8">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="8">
         <v>91.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="8">
+      <c r="J19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="8">
         <v>89.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="8">
+        <v>96.4</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="8">
+        <v>95</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="8">
+        <v>94.8</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
         <v>0.4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D27" s="3">
         <v>1.6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E27" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F27" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G27" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H27" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I27" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J27" s="3">
         <v>0.14979999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
         <v>0.6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D28" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E28" s="3">
         <v>6.2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F28" s="3">
         <v>7.4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G28" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H28" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I28" s="3">
         <v>9.6</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J28" s="3">
         <v>0.42620000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
         <v>3.4</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D29" s="5">
         <v>8.4</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E29" s="5">
         <v>15.4</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F29" s="5">
         <v>18</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G29" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H29" s="5">
         <v>20</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I29" s="5">
         <v>20</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J29" s="6">
         <v>0.33079999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B30" s="8">
         <v>3.8</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C30" s="8">
         <v>9.4</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D30" s="8">
         <v>17</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E30" s="8">
         <v>22.8</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F30" s="8">
         <v>24.6</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G30" s="8">
         <v>27.6</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H30" s="8">
         <v>31.6</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I30" s="8">
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D36" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E36" s="3">
         <v>17</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F36" s="3">
         <v>19</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G36" s="3">
         <v>20.2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H36" s="3">
         <v>20.8</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I36" s="3">
         <v>20.8</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J36" s="3">
         <v>0.314</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B37" s="3">
         <v>4</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C37" s="3">
         <v>11.2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D37" s="3">
         <v>19.2</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E37" s="3">
         <v>23.6</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F37" s="3">
         <v>25.8</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G37" s="3">
         <v>27.8</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H37" s="3">
         <v>30</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I37" s="3">
         <v>30</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="15"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/experiment_v1.xlsx
+++ b/Results/experiment_v1.xlsx
@@ -8,23 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563B33B6-6474-5A4A-AEC1-D813011F7C63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC57A42-5E58-8C44-8D2A-C822D09DF1D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="460" windowWidth="22880" windowHeight="13900" xr2:uid="{5ACFA922-382B-694F-8927-B6D4686CA790}"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="15420" windowHeight="13900" xr2:uid="{5ACFA922-382B-694F-8927-B6D4686CA790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$18</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$15:$I$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$16:$I$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$17:$I$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$18:$I$18</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t xml:space="preserve">London Center </t>
   </si>
@@ -119,6 +109,21 @@
   </si>
   <si>
     <t>2052 diff</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>500 test routes, CNN = 75%, thresh = 30, total =  4668 nodes, Hamming distance, consistency metric</t>
+  </si>
+  <si>
+    <t>Endinburgh</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>500 test routes, CNN = 75%, thresh = 60, total =  nodes, Hamming distance, consistency metric</t>
   </si>
 </sst>
 </file>
@@ -155,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +179,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -187,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,7 +244,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -550,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A11F1-084B-8147-AFB0-FF144BACE468}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,17 +590,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -735,35 +760,35 @@
         <v>0.50580000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="18">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="18">
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="18">
         <v>53.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="18">
         <v>78</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="18">
         <v>84.6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="18">
         <v>86.2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="18">
         <v>86.2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="18">
         <v>86.2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="19">
         <v>0.20180000000000001</v>
       </c>
     </row>
@@ -919,17 +944,17 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -989,7 +1014,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1019,37 +1044,37 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="18">
         <v>14.4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="18">
         <v>54</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="18">
         <v>83.6</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="18">
         <v>94.6</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="18">
         <v>98.6</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="18">
         <v>99</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="18">
         <v>99.2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="18">
         <v>99.2</v>
       </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E19" s="8">
         <v>91.4</v>
       </c>
@@ -1057,7 +1082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E20" s="8">
         <v>89.6</v>
       </c>
@@ -1065,7 +1090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E21" s="8">
         <v>96.4</v>
       </c>
@@ -1073,7 +1098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E22" s="8">
         <v>95</v>
       </c>
@@ -1082,7 +1107,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E23" s="8">
         <v>94.8</v>
       </c>
@@ -1091,23 +1116,24 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -1137,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1195,7 @@
         <v>0.14979999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1201,7 +1227,7 @@
         <v>0.42620000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1259,7 @@
         <v>0.33079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1266,17 +1292,17 @@
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="B34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -1385,71 +1411,522 @@
     <row r="40" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="15"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10.33</v>
+      </c>
+      <c r="D44" s="3">
+        <v>59</v>
+      </c>
+      <c r="E44" s="3">
+        <v>77.67</v>
+      </c>
+      <c r="F44" s="3">
+        <v>84</v>
+      </c>
+      <c r="G44" s="3">
+        <v>84</v>
+      </c>
+      <c r="H44" s="3">
+        <v>84</v>
+      </c>
+      <c r="I44" s="3">
+        <v>84</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.18140000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3">
+        <v>61.67</v>
+      </c>
+      <c r="D45" s="3">
+        <v>84</v>
+      </c>
+      <c r="E45" s="3">
+        <v>96</v>
+      </c>
+      <c r="F45" s="3">
+        <v>98</v>
+      </c>
+      <c r="G45" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="D51" s="3">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3">
+        <v>52.8</v>
+      </c>
+      <c r="G51" s="3">
+        <v>53.4</v>
+      </c>
+      <c r="H51" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="I51" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.13550000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="3">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3">
+        <v>36.6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>52.6</v>
+      </c>
+      <c r="E52" s="3">
+        <v>66</v>
+      </c>
+      <c r="F52" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G52" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="I52" s="3">
+        <v>83</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D58" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E58" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="G58" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="H58" s="3">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I58" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.33229999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="E59" s="3">
+        <v>38.4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>42.4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>48</v>
+      </c>
+      <c r="H59" s="3">
+        <v>49.8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>49.6</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E65" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F65" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="H65" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I65" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.30620000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B70:J70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
